--- a/9-teamproject/C2C_exchange_WBS_RMpM (1).xlsx
+++ b/9-teamproject/C2C_exchange_WBS_RMpM (1).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEO JIHWAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\git2021-working\9-teamproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BB8A85-5961-4CFC-A69E-F52C6D2E34EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9444"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="90">
   <si>
     <t>프론트엔드 배포</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -58,14 +59,6 @@
   </si>
   <si>
     <t>담당자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>예상시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용시간</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -201,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[프론트엔드] 상세보기 및 댓글, 본문수정 입력폼 입력폼 및 스타일 구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>매물 목록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -327,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>차이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,12 +345,32 @@
   <si>
     <t>C2C ZERO수수료 마켓플레이스</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[프론트엔드] 상세보기 및 댓글, 본문수정 입력폼 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,12 +402,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -458,16 +493,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -477,9 +506,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -489,48 +515,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -808,1353 +882,1670 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AR89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.19921875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.19921875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.69921875" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.69921875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="P1" s="20">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="I1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="M1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="P1" s="14">
         <v>10</v>
       </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="22">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="16">
         <v>11</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="21"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="D2" t="s">
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="15"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="16">
+        <v>2</v>
+      </c>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16">
+        <v>3</v>
+      </c>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="16">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="16">
+        <v>6</v>
+      </c>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="15"/>
+    </row>
+    <row r="3" spans="1:44" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" s="18">
+      <c r="C3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="31">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>22</v>
+      </c>
+      <c r="R3" s="22">
+        <v>25</v>
+      </c>
+      <c r="S3" s="22">
+        <v>26</v>
+      </c>
+      <c r="T3" s="22">
+        <v>27</v>
+      </c>
+      <c r="U3" s="22">
+        <v>28</v>
+      </c>
+      <c r="V3" s="24">
+        <v>29</v>
+      </c>
+      <c r="W3" s="23">
         <v>1</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22">
+      <c r="X3" s="23">
         <v>2</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="22">
-        <v>3</v>
-      </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="20">
+      <c r="Y3" s="23">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="23">
         <v>4</v>
       </c>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="21"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="AA3" s="24">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="23">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="23">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="23">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="24">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="AG3" s="23">
         <v>15</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="AH3" s="23">
         <v>16</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="AI3" s="23">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="23">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="24">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="23">
         <v>22</v>
       </c>
-      <c r="R3">
+      <c r="AM3" s="23">
+        <v>23</v>
+      </c>
+      <c r="AN3" s="23">
+        <v>24</v>
+      </c>
+      <c r="AO3" s="23">
         <v>25</v>
       </c>
-      <c r="S3">
+      <c r="AP3" s="24">
         <v>26</v>
       </c>
-      <c r="T3">
-        <v>27</v>
-      </c>
-      <c r="U3">
-        <v>28</v>
-      </c>
-      <c r="V3" s="7">
-        <v>29</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>8</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>11</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A10" s="20"/>
+      <c r="B10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="Q10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AF10" s="7"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A11" s="20"/>
+      <c r="B11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="Q10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AF10" s="11"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>53</v>
+      <c r="D11" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="Q11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AF11" s="11"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>53</v>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="Q11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AF11" s="7"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A12" s="20"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="Q12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AF12" s="11"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>53</v>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="Q12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AF12" s="7"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A13" s="20"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="Q13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AF13" s="11"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="Q13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AF13" s="7"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A14" s="20"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E14">
         <v>6</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="Q14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AF14" s="11"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>53</v>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="Q14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AF14" s="7"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A15" s="20"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="Q15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AF15" s="11"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>53</v>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="Q15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AF15" s="7"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A16" s="20"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="Q16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AF16" s="11"/>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="Q16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>53</v>
+      <c r="A17" s="20"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="Q17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AF17" s="11"/>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="Q17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AF17" s="7"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="Q18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AF18" s="11"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="Q18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>53</v>
+      <c r="A19" s="20"/>
+      <c r="B19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="Q19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AF19" s="11"/>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="Q19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>53</v>
+      <c r="A20" s="20"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="Q20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AF20" s="11"/>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="Q20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="8" t="s">
         <v>53</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="Q21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AF21" s="11"/>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="Q21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>53</v>
+      <c r="A22" s="20"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="Q22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AF22" s="11"/>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="Q22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AF22" s="7"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="Q23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AF23" s="11"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="Q23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>53</v>
+      <c r="A24" s="20"/>
+      <c r="B24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="Q24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AF24" s="11"/>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="Q24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AF24" s="7"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>53</v>
+      <c r="A25" s="20"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="Q25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AF25" s="11"/>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="Q25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AF25" s="7"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="11" t="s">
         <v>53</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="Q26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AF26" s="11"/>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="Q26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AF26" s="7"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>53</v>
+      <c r="A27" s="20"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="Q27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AF27" s="11"/>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="Q27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AF27" s="7"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>53</v>
+      <c r="A28" s="20"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="Q28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AF28" s="11"/>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="Q28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AF28" s="7"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="Q29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AF29" s="11"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="Q29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AF29" s="7"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>53</v>
+      <c r="A30" s="20"/>
+      <c r="B30" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="Q30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AF30" s="11"/>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="Q30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AF30" s="7"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>53</v>
+      <c r="A31" s="20"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="Q31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AF31" s="11"/>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="Q31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AF31" s="7"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>53</v>
+      <c r="A32" s="20"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E32">
         <v>4</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="Q32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AF32" s="11"/>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="Q32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AF32" s="7"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E33">
         <v>5</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="Q33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AF33" s="11"/>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="Q33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AF33" s="7"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>53</v>
+      <c r="A34" s="20"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="Q34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AF34" s="11"/>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="Q34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AF34" s="7"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>53</v>
+      <c r="A35" s="20"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E35">
         <v>6</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="Q35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AF35" s="11"/>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="Q35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AF35" s="7"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>53</v>
+      <c r="A36" s="20"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="Q36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AF36" s="11"/>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="Q36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AF36" s="7"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A37" s="18"/>
-      <c r="B37" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A38" s="18"/>
-      <c r="B38" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A39" s="18"/>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>53</v>
+      <c r="A39" s="20"/>
+      <c r="B39" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I39">
         <v>6</v>
       </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="33"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A40" s="18"/>
-      <c r="C40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>53</v>
+      <c r="A40" s="20"/>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I40">
         <v>12</v>
       </c>
+      <c r="J40">
+        <v>12</v>
+      </c>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A41" s="18"/>
-      <c r="C41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>53</v>
+      <c r="A41" s="20"/>
+      <c r="C41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I41">
         <v>8</v>
       </c>
+      <c r="J41">
+        <v>12</v>
+      </c>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A42" s="18"/>
-      <c r="C42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>53</v>
+      <c r="A42" s="20"/>
+      <c r="C42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I42">
         <v>6</v>
       </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="V42" s="33"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A43" s="18"/>
-      <c r="C43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>53</v>
+      <c r="A43" s="20"/>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I43">
         <v>4</v>
       </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="W43" s="34"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A44" s="18"/>
-      <c r="C44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="9"/>
+      <c r="A44" s="20"/>
+      <c r="C44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="13"/>
       <c r="I44">
         <v>4</v>
       </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A45" s="18"/>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="20"/>
+      <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>53</v>
+      <c r="H45" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I45">
         <v>6</v>
       </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="Y45" s="34"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A46" s="18"/>
-      <c r="B46" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>53</v>
+      <c r="H46" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A47" s="18"/>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>53</v>
+      <c r="A47" s="20"/>
+      <c r="B47" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I47">
         <v>12</v>
       </c>
+      <c r="J47">
+        <v>12</v>
+      </c>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="33"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A48" s="18"/>
-      <c r="C48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>53</v>
+      <c r="A48" s="20"/>
+      <c r="C48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I48">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" s="18"/>
-      <c r="C49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>53</v>
+      <c r="J48">
+        <v>12</v>
+      </c>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A49" s="20"/>
+      <c r="C49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" s="18"/>
-      <c r="C50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>53</v>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="AD49" s="34"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A50" s="20"/>
+      <c r="C50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I50">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" s="18"/>
-      <c r="C51" s="3" t="s">
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="33"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A51" s="20"/>
+      <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>53</v>
+      <c r="H51" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" s="18"/>
-      <c r="C52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>53</v>
+      <c r="J51">
+        <v>6</v>
+      </c>
+      <c r="AF51" s="33"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A52" s="20"/>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="I52">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" s="18"/>
-      <c r="B53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" s="18"/>
-      <c r="B54" t="s">
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="AG52" s="34"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A53" s="20"/>
+      <c r="B53" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" s="18"/>
-      <c r="C55" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>53</v>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A54" s="20"/>
+      <c r="B54" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A55" s="20"/>
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A56" s="18"/>
-      <c r="C56" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>53</v>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A56" s="20"/>
+      <c r="C56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A57" s="18"/>
-      <c r="C57" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>53</v>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A57" s="20"/>
+      <c r="C57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A58" s="18"/>
-      <c r="B58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L58" s="10"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A59" s="18"/>
-      <c r="C59" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>53</v>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="33"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A58" s="20"/>
+      <c r="B58" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A59" s="20"/>
+      <c r="C59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A60" s="18"/>
-      <c r="C60" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L60" s="10" t="s">
-        <v>53</v>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="33"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A60" s="20"/>
+      <c r="C60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" s="18"/>
-      <c r="C61" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>53</v>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="R60" s="34"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A61" s="20"/>
+      <c r="C61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A62" s="18"/>
-      <c r="B62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A63" s="18"/>
-      <c r="C63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L63" s="10" t="s">
-        <v>53</v>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="R61" s="34"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A62" s="20"/>
+      <c r="B62" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A63" s="20"/>
+      <c r="C63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A64" s="18"/>
-      <c r="C64" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L64" s="10" t="s">
-        <v>53</v>
+      <c r="N63">
+        <v>10</v>
+      </c>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A64" s="20"/>
+      <c r="C64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M64">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A65" s="18"/>
-      <c r="C65" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L65" s="10" t="s">
-        <v>53</v>
+      <c r="N64">
+        <v>6</v>
+      </c>
+      <c r="T64" s="34"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A65" s="20"/>
+      <c r="C65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M65">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" s="18"/>
-      <c r="B66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A67" s="18"/>
-      <c r="C67" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L67" s="10" t="s">
-        <v>53</v>
+      <c r="N65">
+        <v>12</v>
+      </c>
+      <c r="U65" s="34"/>
+      <c r="V65" s="33"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A66" s="20"/>
+      <c r="B66" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A67" s="20"/>
+      <c r="C67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" s="18"/>
-      <c r="C68" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L68" s="10" t="s">
-        <v>53</v>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="W67" s="34"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A68" s="20"/>
+      <c r="C68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A69" s="18"/>
-      <c r="C69" s="3" t="s">
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="W68" s="34"/>
+      <c r="X68" s="34"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A69" s="20"/>
+      <c r="C69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="X69" s="34"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A70" s="20"/>
+      <c r="B70" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A71" s="20"/>
+      <c r="C71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L69" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A70" s="18"/>
-      <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A71" s="18"/>
-      <c r="C71" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L71" s="10" t="s">
-        <v>53</v>
+      <c r="L71" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M71">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A72" s="18"/>
-      <c r="C72" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L72" s="10" t="s">
-        <v>53</v>
+      <c r="N71">
+        <v>6</v>
+      </c>
+      <c r="Y71" s="34"/>
+    </row>
+    <row r="72" spans="1:30" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A72" s="20"/>
+      <c r="C72" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M72">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A73" s="18"/>
-      <c r="C73" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L73" s="10" t="s">
-        <v>53</v>
+      <c r="N72">
+        <v>12</v>
+      </c>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="33"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A73" s="20"/>
+      <c r="C73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A74" s="18"/>
-      <c r="B74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="4" t="s">
+      <c r="N73">
+        <v>6</v>
+      </c>
+      <c r="AB73" s="34"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A74" s="20"/>
+      <c r="B74" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A75" s="20"/>
+      <c r="C75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="AC75" s="34"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A76" s="20"/>
+      <c r="C76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="AC76" s="34"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A77" s="20"/>
+      <c r="C77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="AD77" s="34"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A78" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A79" s="20"/>
+      <c r="C79" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A80" s="20"/>
+      <c r="C80" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A81" s="20"/>
+      <c r="C81" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A82" s="20"/>
+      <c r="C82" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A83" s="20"/>
+      <c r="C83" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A84" s="20"/>
+      <c r="C84" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A75" s="18"/>
-      <c r="C75" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L75" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A76" s="18"/>
-      <c r="C76" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A77" s="18"/>
-      <c r="C77" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L77" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" s="18"/>
-      <c r="C79" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" s="18"/>
-      <c r="C80" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A81" s="18"/>
-      <c r="C81" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A82" s="18"/>
-      <c r="C82" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A83" s="18"/>
-      <c r="C83" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A84" s="18"/>
-      <c r="C84" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C85" s="8" t="s">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C85" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C86" s="8" t="s">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C86" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C87" s="8" t="s">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C87" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E88">
         <f>SUM(E4:E87)</f>
         <v>90</v>
       </c>
+      <c r="F88">
+        <f>SUM(F4:F87)</f>
+        <v>90</v>
+      </c>
+      <c r="G88">
+        <f>E88-F88</f>
+        <v>0</v>
+      </c>
       <c r="I88">
         <f>SUM(I4:I87)</f>
         <v>90</v>
       </c>
+      <c r="J88">
+        <f>SUM(J4:J87)</f>
+        <v>102</v>
+      </c>
+      <c r="K88">
+        <f>I88-J88</f>
+        <v>-12</v>
+      </c>
       <c r="M88">
         <f>SUM(M4:M87)</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B89" t="s">
-        <v>33</v>
+      <c r="N88">
+        <f>SUM(N4:N87)</f>
+        <v>90</v>
+      </c>
+      <c r="O88">
+        <f>M88-N88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B89" s="25" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AF1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AB2:AF2"/>
+  <mergeCells count="23">
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="W1:AP1"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A78:A84"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="A9:A77"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E11:E36">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3"/>
@@ -2166,7 +2557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I36">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3"/>
@@ -2178,7 +2569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M36">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3"/>
@@ -2190,7 +2581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I52">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3"/>
@@ -2202,7 +2593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M55:M77">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2213,6 +2604,54 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K88">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O88">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K88 G88 O88">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
